--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D506A016-9635-49C0-A68B-AB766EBE5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B38D8-47AF-4FF5-B47F-C6C81343955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B32D39AB-F9B6-466A-8C36-AE7D798F77B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Usuario</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>pedro</t>
+  </si>
+  <si>
+    <t>pedron</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94980BD-5AB0-445B-A5F6-6C965F29B303}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +423,14 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
